--- a/data/trans_orig/Q46-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q46-Clase-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,78; 80,96</t>
+          <t>78,77; 80,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,62; 82,99</t>
+          <t>80,5; 83,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,21; 83,1</t>
+          <t>80,34; 83,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>79,52; 81,97</t>
+          <t>79,41; 81,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>61,76; 64,11</t>
+          <t>61,72; 64,15</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>62,82; 65,44</t>
+          <t>62,88; 65,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>64,46; 67,24</t>
+          <t>64,43; 66,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>64,8; 66,83</t>
+          <t>64,83; 66,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>72,24; 74,28</t>
+          <t>72,26; 74,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>73,2; 75,33</t>
+          <t>73,1; 75,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>73,48; 75,86</t>
+          <t>73,37; 75,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>72,75; 74,59</t>
+          <t>72,77; 74,66</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>78,01; 80,13</t>
+          <t>78,07; 80,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,88; 83,3</t>
+          <t>80,66; 83,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>79,18; 81,8</t>
+          <t>78,97; 81,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>80,47; 82,82</t>
+          <t>80,41; 82,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,48; 64,76</t>
+          <t>62,51; 64,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,55; 67,19</t>
+          <t>64,57; 67,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>65,05; 67,55</t>
+          <t>65,01; 67,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>66,16; 68,4</t>
+          <t>66,28; 68,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>70,26; 72,28</t>
+          <t>70,32; 72,32</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>73,69; 75,9</t>
+          <t>73,64; 75,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72,3; 74,46</t>
+          <t>72,29; 74,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>74,07; 76,01</t>
+          <t>74,09; 75,99</t>
         </is>
       </c>
     </row>
@@ -1004,42 +1004,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>78,3; 80,42</t>
+          <t>78,26; 80,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>79,99; 82,1</t>
+          <t>79,86; 81,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>79,41; 81,86</t>
+          <t>79,35; 81,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>80,54; 94,94</t>
+          <t>80,69; 95,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>63,82; 67,8</t>
+          <t>63,83; 68,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>67,85; 71,49</t>
+          <t>67,84; 71,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>65,78; 69,98</t>
+          <t>65,71; 69,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>65,34; 68,45</t>
+          <t>65,31; 68,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>76,72; 78,63</t>
+          <t>76,78; 78,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>76,32; 78,63</t>
+          <t>76,26; 78,58</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>76,74; 93,77</t>
+          <t>76,67; 92,76</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>77,6; 78,78</t>
+          <t>77,63; 78,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,29; 80,91</t>
+          <t>79,27; 80,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>80,18; 81,89</t>
+          <t>80,26; 81,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>80,54; 82,57</t>
+          <t>80,61; 82,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,02; 66,73</t>
+          <t>65,03; 66,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>66,39; 68,27</t>
+          <t>66,39; 68,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>65,83; 67,72</t>
+          <t>65,88; 67,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>67,55; 76,24</t>
+          <t>67,56; 76,71</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>73,1; 74,24</t>
+          <t>73,13; 74,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74,33; 75,67</t>
+          <t>74,38; 75,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>74,35; 75,67</t>
+          <t>74,38; 75,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>75,39; 78,17</t>
+          <t>75,37; 78,16</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>74,32; 77,32</t>
+          <t>74,33; 77,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,13; 79,27</t>
+          <t>77,14; 79,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>78,21; 80,4</t>
+          <t>78,13; 80,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78,25; 81,06</t>
+          <t>78,1; 80,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>66,18; 68,38</t>
+          <t>66,16; 68,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>68,95; 70,97</t>
+          <t>68,89; 70,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>68,59; 70,48</t>
+          <t>68,59; 70,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>67,09; 70,64</t>
+          <t>66,91; 70,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>69,53; 71,49</t>
+          <t>69,68; 71,59</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>72,54; 74,15</t>
+          <t>72,53; 74,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>73,1; 74,74</t>
+          <t>73,16; 74,76</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>70,45; 74,23</t>
+          <t>70,46; 74,26</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>71,71; 73,8</t>
+          <t>71,67; 73,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>71,99; 75,21</t>
+          <t>72,16; 75,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>71,65; 74,81</t>
+          <t>71,55; 74,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>71,63; 77,11</t>
+          <t>71,64; 77,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>65,08; 66,45</t>
+          <t>65,13; 66,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>67,74; 69,38</t>
+          <t>67,75; 69,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>67,34; 69,04</t>
+          <t>67,43; 69,1</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>67,03; 68,88</t>
+          <t>67,02; 68,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,5; 67,74</t>
+          <t>66,54; 67,72</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>68,91; 70,36</t>
+          <t>68,8; 70,27</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>68,53; 69,98</t>
+          <t>68,57; 70,09</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>68,52; 70,58</t>
+          <t>68,47; 70,56</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>77,63; 78,37</t>
+          <t>77,58; 78,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>79,44; 80,29</t>
+          <t>79,43; 80,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>79,48; 80,46</t>
+          <t>79,45; 80,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>80,26; 86,32</t>
+          <t>80,3; 86,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>65,17; 65,98</t>
+          <t>65,13; 65,95</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>67,52; 68,47</t>
+          <t>67,54; 68,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>67,17; 68,07</t>
+          <t>67,17; 68,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>67,63; 71,35</t>
+          <t>67,64; 71,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>71,36; 71,99</t>
+          <t>71,31; 71,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>73,53; 74,22</t>
+          <t>73,52; 74,2</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>73,32; 74,06</t>
+          <t>73,32; 74,08</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>74,0; 78,5</t>
+          <t>73,99; 78,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q46-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q46-Clase-trans_orig.xlsx
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
